--- a/BookCodes/IOPort/接线图.xlsx
+++ b/BookCodes/IOPort/接线图.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EBB618-5655-4F1E-9C57-4440013B8B17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D206B4-9187-4557-8B02-95E5D2B714EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>MCLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,103 +103,6 @@
   </si>
   <si>
     <t>LED3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#define LED_ON  0</t>
-  </si>
-  <si>
-    <t>#define LED_OFF 1</t>
-  </si>
-  <si>
-    <t>void delay()</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    volatile int i=0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for(i=0;i&lt;=10000;i++){asm("NOP");}</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>void main(void)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ANSELGbits.ANSG15=0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TRISGbits.TRISG15=1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TRISAbits.TRISA5=0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LATAbits.LATA5=LED_OFF;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TRISEbits.TRISE5=0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LATEbits.LATE5=LED_OFF;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TRISEbits.TRISE6=0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LATEbits.LATE6=LED_OFF;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    while(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if(PORTGbits.RG15==0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            LATAbits.LATA5=1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            LATAbits.LATA5=0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        delay();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return;</t>
-  </si>
-  <si>
-    <t>//防抖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//将模拟输入关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//设置为输入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//设置为输出口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,6 +311,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,9 +324,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1035,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AL27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
@@ -1133,19 +1035,19 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="5"/>
-      <c r="AD4" s="16" t="s">
+      <c r="AD4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16" t="s">
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
     </row>
     <row r="5" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
@@ -1208,19 +1110,19 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="10"/>
-      <c r="AD5" s="16" t="s">
+      <c r="AD5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16" t="s">
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
     </row>
     <row r="6" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
@@ -1255,19 +1157,19 @@
         <v>143</v>
       </c>
       <c r="Z6" s="6"/>
-      <c r="AD6" s="16" t="s">
+      <c r="AD6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16" t="s">
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
     </row>
     <row r="7" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
@@ -1302,19 +1204,19 @@
         <v>141</v>
       </c>
       <c r="Z7" s="6"/>
-      <c r="AD7" s="16" t="s">
+      <c r="AD7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16" t="s">
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
     </row>
     <row r="8" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
@@ -1351,19 +1253,19 @@
         <v>139</v>
       </c>
       <c r="Z8" s="6"/>
-      <c r="AD8" s="16" t="s">
+      <c r="AD8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16" t="s">
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
     </row>
     <row r="9" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
@@ -1400,19 +1302,19 @@
         <v>137</v>
       </c>
       <c r="Z9" s="6"/>
-      <c r="AD9" s="16" t="s">
+      <c r="AD9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16" t="s">
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
     </row>
     <row r="10" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
@@ -1449,19 +1351,19 @@
         <v>135</v>
       </c>
       <c r="Z10" s="6"/>
-      <c r="AD10" s="16" t="s">
+      <c r="AD10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16" t="s">
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
     </row>
     <row r="11" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
@@ -1498,15 +1400,15 @@
         <v>133</v>
       </c>
       <c r="Z11" s="6"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
     </row>
     <row r="12" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
@@ -1543,15 +1445,15 @@
         <v>131</v>
       </c>
       <c r="Z12" s="6"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
     </row>
     <row r="13" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
@@ -1586,15 +1488,15 @@
         <v>129</v>
       </c>
       <c r="Z13" s="6"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
@@ -1612,10 +1514,10 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="13"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -1631,15 +1533,15 @@
         <v>127</v>
       </c>
       <c r="Z14" s="6"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
@@ -1657,8 +1559,8 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -1674,15 +1576,15 @@
         <v>125</v>
       </c>
       <c r="Z15" s="6"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
     </row>
     <row r="16" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
@@ -1717,15 +1619,15 @@
         <v>123</v>
       </c>
       <c r="Z16" s="6"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
     </row>
     <row r="17" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
@@ -1760,15 +1662,15 @@
         <v>121</v>
       </c>
       <c r="Z17" s="6"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="3:38" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
@@ -1803,15 +1705,15 @@
         <v>119</v>
       </c>
       <c r="Z18" s="6"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="3:38" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
@@ -2140,25 +2042,6 @@
     <row r="27" spans="3:38" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AF16:AL16"/>
-    <mergeCell ref="AF17:AL17"/>
-    <mergeCell ref="AF18:AL18"/>
-    <mergeCell ref="AF10:AL10"/>
-    <mergeCell ref="AF11:AL11"/>
-    <mergeCell ref="AF12:AL12"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="AF15:AL15"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="AF7:AL7"/>
-    <mergeCell ref="AF8:AL8"/>
-    <mergeCell ref="AF9:AL9"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD16:AE16"/>
     <mergeCell ref="AD17:AE17"/>
     <mergeCell ref="AD18:AE18"/>
     <mergeCell ref="N14:O15"/>
@@ -2171,196 +2054,29 @@
     <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="AD11:AE11"/>
     <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="AF7:AL7"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="AF16:AL16"/>
+    <mergeCell ref="AF17:AL17"/>
+    <mergeCell ref="AF18:AL18"/>
+    <mergeCell ref="AF10:AL10"/>
+    <mergeCell ref="AF11:AL11"/>
+    <mergeCell ref="AF12:AL12"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="AF15:AL15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E77640B-A2BD-4075-B0E9-BCF230DCB6CF}">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>